--- a/OOP5_NO_NORM_MORE_CONSTRAINTS/parameters_quals.xlsx
+++ b/OOP5_NO_NORM_MORE_CONSTRAINTS/parameters_quals.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klkusima/Desktop/RASH_Research/CO_ox/Kinetics/OOP_Kinetics/MiKi/OOP5_NO_NORM_MORE_CONSTRAINTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A49F17-5D74-224A-84C2-CD1FE80BEC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB881746-E208-9448-8E49-C2A1F362F859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-76800" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="3" xr2:uid="{DA9D6E6E-FC40-CD4F-8404-2BB44FCB6395}"/>
+    <workbookView xWindow="-34480" yWindow="500" windowWidth="34480" windowHeight="19620" activeTab="4" xr2:uid="{DA9D6E6E-FC40-CD4F-8404-2BB44FCB6395}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="115">
   <si>
     <t>Parameter</t>
   </si>
@@ -716,6 +717,36 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Fitting</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>rx 19 and 21</t>
+  </si>
+  <si>
+    <t>rx 20 and 22</t>
+  </si>
+  <si>
+    <t>rx 10 and 12</t>
+  </si>
+  <si>
+    <t>rx 9 and 11</t>
+  </si>
+  <si>
+    <t>rx 1 and 3</t>
+  </si>
+  <si>
+    <t>rx 2 and 4</t>
+  </si>
+  <si>
+    <t>rx 13 and 15</t>
+  </si>
+  <si>
+    <t>rx 14 and 16</t>
   </si>
 </sst>
 </file>
@@ -723,7 +754,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -904,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -936,28 +967,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -972,27 +1013,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1324,6 +1349,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>PsiNormal</we:customFunctionIds>
@@ -2056,23 +2084,23 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="18"/>
+      <c r="H3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="11"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
@@ -2171,7 +2199,7 @@
       <c r="H7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="3">
         <v>2.20379289942687E-2</v>
       </c>
       <c r="J7" s="4"/>
@@ -2317,59 +2345,59 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="3">
         <v>2.0000000000000001E-10</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="3">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="3">
         <v>1E-8</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="11" t="s">
         <v>56</v>
       </c>
       <c r="H6" s="3">
@@ -2386,19 +2414,19 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="3">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="3">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="3">
         <v>1E-8</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>57</v>
       </c>
       <c r="H7" s="3">
@@ -2427,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8C4DD4-6192-244D-9C69-64BC4D1DB22F}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2456,148 +2484,148 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="14" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="14" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="3">
         <v>7790270.0099999998</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="27">
         <v>2817.75144</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="27" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="B8" s="24"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D8" s="3">
         <v>2764.7115699999999</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="G8" s="14" t="s">
+      <c r="E8" s="28"/>
+      <c r="G8" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="13">
         <v>0.91154771196512896</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>76</v>
       </c>
       <c r="D9" s="3">
         <v>9333380.9700000007</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="27">
         <v>1499601.37</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="13">
         <v>-6.5557551617302895E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="B10" s="24"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D10" s="3">
         <v>6.2239080199999997</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="G10" s="14" t="s">
+      <c r="E10" s="28"/>
+      <c r="G10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="13">
         <v>-7.4902751753659995E-7</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="3">
         <v>933374.875</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="27">
         <v>59.866431900000002</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="13">
         <v>0.140385585538566</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="24"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="11" t="s">
         <v>79</v>
       </c>
       <c r="D12" s="3">
         <v>15590.9555</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D13" s="3">
         <v>38622.707799999996</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="21">
         <v>7.2500000000000004E-3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="24"/>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D14" s="3">
         <v>5327818.8099999996</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L16" t="s">
@@ -2605,15 +2633,15 @@
       </c>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M17" s="28" t="s">
+      <c r="M17" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="N17" s="28" t="s">
+      <c r="N17" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M18" s="29" t="s">
+      <c r="M18" s="16" t="s">
         <v>85</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -2621,7 +2649,7 @@
       </c>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M19" s="29" t="s">
+      <c r="M19" s="16" t="s">
         <v>86</v>
       </c>
       <c r="N19" s="1" t="s">
@@ -2629,7 +2657,7 @@
       </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M20" s="29" t="s">
+      <c r="M20" s="16" t="s">
         <v>87</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -2637,7 +2665,7 @@
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M21" s="29" t="s">
+      <c r="M21" s="16" t="s">
         <v>88</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -2645,7 +2673,7 @@
       </c>
     </row>
     <row r="22" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M22" s="30" t="s">
+      <c r="M22" s="17" t="s">
         <v>89</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -2653,7 +2681,7 @@
       </c>
     </row>
     <row r="23" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M23" s="30" t="s">
+      <c r="M23" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -2661,7 +2689,7 @@
       </c>
     </row>
     <row r="24" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M24" s="30" t="s">
+      <c r="M24" s="17" t="s">
         <v>91</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -2669,7 +2697,7 @@
       </c>
     </row>
     <row r="25" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M25" s="30" t="s">
+      <c r="M25" s="17" t="s">
         <v>92</v>
       </c>
       <c r="N25" s="1" t="s">
@@ -2677,7 +2705,7 @@
       </c>
     </row>
     <row r="26" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M26" s="29" t="s">
+      <c r="M26" s="16" t="s">
         <v>93</v>
       </c>
       <c r="N26" s="1" t="s">
@@ -2699,4 +2727,174 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF18320A-3EFE-7147-A3B0-6E3C73C8AAAC}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="3">
+        <f>(0.083028 + 0.083028)/2</f>
+        <v>8.3028000000000005E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="20"/>
+      <c r="C8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="3">
+        <f>(0.074709 + 0.036911)/2</f>
+        <v>5.5809999999999998E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="3">
+        <f>(776.81 + 776.81)/2</f>
+        <v>776.81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="20"/>
+      <c r="C10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="3">
+        <f>(135280000 + 8957800000)/2</f>
+        <v>4546540000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10">
+        <f>(34885+2047300)/2</f>
+        <v>1041092.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3">
+        <f>(5298.8 + 266710)/2</f>
+        <v>136004.4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="20"/>
+      <c r="C12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="3">
+        <f>(0.000000000092232 + 0.000000000000016764)/2</f>
+        <v>4.6124382000000001E-11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12">
+        <f>(0.00000035767+0.000000000073349)/2</f>
+        <v>1.788716745E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3">
+        <f>(0.935 + 1.3455)/2</f>
+        <v>1.14025</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="20"/>
+      <c r="C14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="3">
+        <f>(0+0)/2</f>
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>